--- a/cleaned_data/andhra.xlsx
+++ b/cleaned_data/andhra.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>4437</v>
       </c>
       <c r="D12">
-        <v>5981</v>
+        <v>5500</v>
       </c>
       <c r="E12">
         <v>153119816</v>
@@ -590,7 +590,7 @@
         <v>4408</v>
       </c>
       <c r="D13">
-        <v>6852</v>
+        <v>6057</v>
       </c>
       <c r="E13">
         <v>206817895</v>
